--- a/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P2A_fisi_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04629993831720016</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05876473405283369</v>
+        <v>0.05876473405283368</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03348382529276765</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01930986517929302</v>
+        <v>0.01805180044162635</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02745161698725525</v>
+        <v>0.02561737002954845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02258486951404686</v>
+        <v>0.02028978173251115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06540393013245285</v>
+        <v>0.06246283274019174</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01700204664025889</v>
+        <v>0.01665633493493517</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0349627478664304</v>
+        <v>0.0346941554565326</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02457859062929908</v>
+        <v>0.02572377474955578</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04237795585971285</v>
+        <v>0.04388410139815314</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02202510885010968</v>
+        <v>0.02192367706983998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03499981303000185</v>
+        <v>0.03554673630961464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02775622002814891</v>
+        <v>0.02819239115567597</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05907725056997825</v>
+        <v>0.05837676547120662</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05555429686291965</v>
+        <v>0.05123489047102183</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07420226676222136</v>
+        <v>0.07602894594999821</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05943966209444684</v>
+        <v>0.05944432646006112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1119136291659825</v>
+        <v>0.1116617234854331</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06102545467132774</v>
+        <v>0.05982743078394268</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09009797660103119</v>
+        <v>0.09012810084999343</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07412102401277008</v>
+        <v>0.07551223492868674</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07889004100457971</v>
+        <v>0.07974319489023142</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05013893944001314</v>
+        <v>0.047503288634494</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.07231161899520332</v>
+        <v>0.07192446877834013</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.05893979019164895</v>
+        <v>0.05817907398920709</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08967080510581653</v>
+        <v>0.08925667646243769</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04450000717564776</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06989141941821804</v>
+        <v>0.06989141941821801</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0438739594483241</v>
@@ -821,7 +821,7 @@
         <v>0.03157884511897793</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06629237617049021</v>
+        <v>0.06629237617049022</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.03555158821824254</v>
@@ -833,7 +833,7 @@
         <v>0.03808212653501435</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06821116231123393</v>
+        <v>0.06821116231123395</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01332995736022581</v>
+        <v>0.01282231777680819</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03372759043507376</v>
+        <v>0.03345814056252485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02564049576289165</v>
+        <v>0.02758362839589926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04962903373486677</v>
+        <v>0.04993540802694646</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02625888072660923</v>
+        <v>0.0260217984706223</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03860220235008071</v>
+        <v>0.03463702795275819</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0146987089273688</v>
+        <v>0.01611356858937011</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04873303024536755</v>
+        <v>0.04912438805520787</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02324357757809531</v>
+        <v>0.02289974795768934</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04161712966105886</v>
+        <v>0.04176076409932493</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02668981074733284</v>
+        <v>0.02546631077595689</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05409637694191758</v>
+        <v>0.0540061462439604</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05229944709575148</v>
+        <v>0.05318112876714461</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08179718361408689</v>
+        <v>0.08238693217481094</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06621669340014241</v>
+        <v>0.06937842252005885</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09898343882895785</v>
+        <v>0.09921385924052084</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06993907320904717</v>
+        <v>0.07158145637961882</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09037335799622473</v>
+        <v>0.09177710068748422</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05780996164476922</v>
+        <v>0.0558638134674009</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08951717652245035</v>
+        <v>0.0875545529251852</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0523759165487403</v>
+        <v>0.05206875966466693</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07842432535959519</v>
+        <v>0.07623685239321185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05579357550149758</v>
+        <v>0.05550746053440237</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08771748401666764</v>
+        <v>0.08686375336963349</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04061415219687171</v>
+        <v>0.04225923085852229</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06107329450457823</v>
+        <v>0.06310168892140598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04409481141394225</v>
+        <v>0.04628904122150231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09367541340008613</v>
+        <v>0.0952978173250348</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04346320685590634</v>
+        <v>0.04458985974122002</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05956782527856619</v>
+        <v>0.05827482650732244</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04462468047857882</v>
+        <v>0.04680801210611332</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08339580932311481</v>
+        <v>0.08488899864154049</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0483175214678637</v>
+        <v>0.04812031721894244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06548897298083979</v>
+        <v>0.06667151083229325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04953584550530455</v>
+        <v>0.05063963458595201</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1005322902606039</v>
+        <v>0.09804328402210365</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08059535901871362</v>
+        <v>0.08002536878259635</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1111738244133511</v>
+        <v>0.1108300924760953</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08842349430199205</v>
+        <v>0.08914815454668119</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1550007770442578</v>
+        <v>0.1550253743624225</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1312744112379743</v>
+        <v>0.1280157629602351</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1334916134855917</v>
+        <v>0.1321628481305436</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.137249724858946</v>
+        <v>0.1429894656547454</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1759553016191456</v>
+        <v>0.1759969316855446</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08342155708761728</v>
+        <v>0.08329986338797142</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1064686610091613</v>
+        <v>0.1070024013520793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08924151411124477</v>
+        <v>0.0915321988646982</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1471229352014617</v>
+        <v>0.1499506649300411</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.06971572562802564</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.09198198262167281</v>
+        <v>0.0919819826216728</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06380031107352208</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04973893820463485</v>
+        <v>0.05008164521049332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07556422884602276</v>
+        <v>0.07588929029848589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05070983674838585</v>
+        <v>0.0508967126040165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1041896017821356</v>
+        <v>0.1039767485732118</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04663008557739153</v>
+        <v>0.04822781452604507</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07768166188488777</v>
+        <v>0.07675567435245374</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05376065008472797</v>
+        <v>0.05328803195551469</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07758806690141229</v>
+        <v>0.0770404556995289</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05278268961956108</v>
+        <v>0.05250547884462312</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08246396293521406</v>
+        <v>0.08163328759657398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05461501420080747</v>
+        <v>0.05581751408122122</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09605925017475411</v>
+        <v>0.09727156844961792</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07711336828190711</v>
+        <v>0.07704817621771402</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1098486391225102</v>
+        <v>0.1108549184096816</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08236019485717128</v>
+        <v>0.08115714671081919</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1428490052078561</v>
+        <v>0.1445706329697026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08757379569133228</v>
+        <v>0.08846291097193575</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1215253891664099</v>
+        <v>0.1231128201321144</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08901018564019444</v>
+        <v>0.08990169320310921</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1087454208858446</v>
+        <v>0.1091875561425312</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07659931106180441</v>
+        <v>0.07598940716878858</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1093943794605492</v>
+        <v>0.1080318710460094</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07796812415414739</v>
+        <v>0.07830996330323524</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1225379749262001</v>
+        <v>0.1237442005572673</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.05602464368183729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1508528687389232</v>
+        <v>0.1508528687389231</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07448731692065061</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03912056620124943</v>
+        <v>0.03919266809316574</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04940368846933645</v>
+        <v>0.04992586717220244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03993935856712025</v>
+        <v>0.03906716103183545</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1192409096514313</v>
+        <v>0.1221234060989172</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05514974340642756</v>
+        <v>0.05441836492003645</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09030016682851608</v>
+        <v>0.08788843631572299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05862901771796786</v>
+        <v>0.06237639951933439</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1319459668642984</v>
+        <v>0.1305029877148959</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05336419684740669</v>
+        <v>0.05532159330353595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07983380860735614</v>
+        <v>0.07972562784482799</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05557738034724668</v>
+        <v>0.05544486524458777</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.131790607496908</v>
+        <v>0.1337948966859833</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09407959359265729</v>
+        <v>0.09415330867925338</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09741980718070352</v>
+        <v>0.09731674964045942</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07716996679334973</v>
+        <v>0.07700126015939834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1817436837296901</v>
+        <v>0.1848171368791576</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09681943155894369</v>
+        <v>0.1008304206194463</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1393407391462847</v>
+        <v>0.1359303308763556</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1015563314352761</v>
+        <v>0.1057158356767125</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1708372362055402</v>
+        <v>0.1711832222518154</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0886253603525166</v>
+        <v>0.08785698574725781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1132984226565135</v>
+        <v>0.1130597847530005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08345927928118599</v>
+        <v>0.08448399014866158</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1676950322323132</v>
+        <v>0.1683817742111262</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.04949769073152042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05034833709649696</v>
+        <v>0.05034833709649695</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.06527609334001667</v>
@@ -1365,7 +1365,7 @@
         <v>0.07881711525630634</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.150457703404166</v>
+        <v>0.1504577034041661</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0568620620442531</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009486841708193352</v>
+        <v>0.008939050763627972</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0250336096477217</v>
+        <v>0.02542682265915463</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02757729122701686</v>
+        <v>0.03086232474349357</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02332229063838036</v>
+        <v>0.02350194447495834</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05312218731578674</v>
+        <v>0.05285652314168632</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07478430552028366</v>
+        <v>0.07653128370166173</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0640326090093499</v>
+        <v>0.06201651185432996</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1306069849743536</v>
+        <v>0.1305993111116585</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04633723557874899</v>
+        <v>0.04552324486177146</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0680126968243786</v>
+        <v>0.06852559585939309</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05878879630959549</v>
+        <v>0.05881023295779749</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1099014836606881</v>
+        <v>0.1113293419870474</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04635430486125133</v>
+        <v>0.05019712090221583</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0823994352132611</v>
+        <v>0.08641310259834618</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08198652367348935</v>
+        <v>0.08129883338708095</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1069797664715807</v>
+        <v>0.1104808623148321</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0797546957365379</v>
+        <v>0.080453919468194</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1115044203254235</v>
+        <v>0.1105805198867908</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09954537906980498</v>
+        <v>0.09676865447114727</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1742707460037163</v>
+        <v>0.1718086490911819</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06965631879714729</v>
+        <v>0.06911470192381135</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0970114465266446</v>
+        <v>0.09909934224529331</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08804576437079631</v>
+        <v>0.08936611554257298</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1477503983303208</v>
+        <v>0.1480785840809733</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04315941134360243</v>
+        <v>0.04256410087705702</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0641922774957935</v>
+        <v>0.06440724856718606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04850244052652439</v>
+        <v>0.04810676325302073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09805513460703544</v>
+        <v>0.09877653026791793</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05425623325883237</v>
+        <v>0.05426535467438855</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08119373529172207</v>
+        <v>0.0802495511404395</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05994721536895152</v>
+        <v>0.05993224408887641</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1047595655510624</v>
+        <v>0.1046324528321562</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05028588973294881</v>
+        <v>0.05085351381382768</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07493656384799154</v>
+        <v>0.07600331172958898</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05631982249870324</v>
+        <v>0.05622851433671801</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1037988636904856</v>
+        <v>0.1036865278780438</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05807485580840389</v>
+        <v>0.05805950062006252</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08351178932771428</v>
+        <v>0.08317956613180717</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06520893983998097</v>
+        <v>0.06433676509794885</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1202124803560958</v>
+        <v>0.1206663072011175</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07099020589841049</v>
+        <v>0.07201021109360203</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.101217787406259</v>
+        <v>0.1007502660859862</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07779720843242215</v>
+        <v>0.07747476368780001</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1213560450416203</v>
+        <v>0.1223358985793279</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06186942801698705</v>
+        <v>0.06215056700684606</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08870786815048004</v>
+        <v>0.09016014495270022</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.06881457362914326</v>
+        <v>0.06848346355920239</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1177264321709253</v>
+        <v>0.1175270556177413</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9149</v>
+        <v>8553</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12002</v>
+        <v>11200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9691</v>
+        <v>8706</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36013</v>
+        <v>34393</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5214</v>
+        <v>5108</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10994</v>
+        <v>10910</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8530</v>
+        <v>8928</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>20698</v>
+        <v>21433</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17190</v>
+        <v>17110</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26308</v>
+        <v>26719</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>21543</v>
+        <v>21881</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>61383</v>
+        <v>60655</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26320</v>
+        <v>24274</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32442</v>
+        <v>33241</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25505</v>
+        <v>25507</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>61622</v>
+        <v>61483</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18715</v>
+        <v>18348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>28332</v>
+        <v>28341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25724</v>
+        <v>26207</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38531</v>
+        <v>38947</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39131</v>
+        <v>37074</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>54354</v>
+        <v>54063</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45746</v>
+        <v>45156</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>93171</v>
+        <v>92740</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4891</v>
+        <v>4705</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14125</v>
+        <v>14012</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9672</v>
+        <v>10405</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23981</v>
+        <v>24129</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9765</v>
+        <v>9677</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>13048</v>
+        <v>11708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5472</v>
+        <v>5999</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20621</v>
+        <v>20787</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>17172</v>
+        <v>16918</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31496</v>
+        <v>31605</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20004</v>
+        <v>19087</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>49031</v>
+        <v>48949</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19190</v>
+        <v>19514</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34256</v>
+        <v>34503</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24979</v>
+        <v>26171</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47830</v>
+        <v>47941</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26008</v>
+        <v>26619</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30547</v>
+        <v>31022</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21521</v>
+        <v>20797</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>37879</v>
+        <v>37048</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>38695</v>
+        <v>38468</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>59352</v>
+        <v>57697</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>41817</v>
+        <v>41603</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>79503</v>
+        <v>78729</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22029</v>
+        <v>22921</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38440</v>
+        <v>39717</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23014</v>
+        <v>24159</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44178</v>
+        <v>44944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7292</v>
+        <v>7481</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15495</v>
+        <v>15159</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7413</v>
+        <v>7776</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>15636</v>
+        <v>15916</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>34314</v>
+        <v>34174</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58255</v>
+        <v>59307</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>34082</v>
+        <v>34842</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>66262</v>
+        <v>64621</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43714</v>
+        <v>43405</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>69974</v>
+        <v>69758</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46149</v>
+        <v>46528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73100</v>
+        <v>73112</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22025</v>
+        <v>21479</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>34725</v>
+        <v>34379</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22800</v>
+        <v>23754</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>32991</v>
+        <v>32999</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>59244</v>
+        <v>59157</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>94709</v>
+        <v>95183</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>61401</v>
+        <v>62977</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>96970</v>
+        <v>98834</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61593</v>
+        <v>62018</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>87580</v>
+        <v>87956</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58298</v>
+        <v>58513</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>117926</v>
+        <v>117685</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>33307</v>
+        <v>34448</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>59555</v>
+        <v>58845</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>44400</v>
+        <v>44009</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>66820</v>
+        <v>66348</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>103065</v>
+        <v>102523</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>158798</v>
+        <v>157199</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>107893</v>
+        <v>110268</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>191451</v>
+        <v>193867</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95492</v>
+        <v>95411</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>127316</v>
+        <v>128482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>94684</v>
+        <v>93301</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>161683</v>
+        <v>163631</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>62553</v>
+        <v>63188</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>93168</v>
+        <v>94385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>73511</v>
+        <v>74248</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>93653</v>
+        <v>94034</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>149569</v>
+        <v>148378</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>210657</v>
+        <v>208033</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>154027</v>
+        <v>154702</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>244225</v>
+        <v>246629</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>13714</v>
+        <v>13739</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25225</v>
+        <v>25492</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24791</v>
+        <v>24249</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67725</v>
+        <v>69362</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31367</v>
+        <v>30951</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>68766</v>
+        <v>66929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43283</v>
+        <v>46049</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>109627</v>
+        <v>108428</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>49058</v>
+        <v>50858</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>101558</v>
+        <v>101420</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>75527</v>
+        <v>75347</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>184351</v>
+        <v>187154</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32980</v>
+        <v>33006</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49742</v>
+        <v>49690</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47900</v>
+        <v>47795</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>103224</v>
+        <v>104969</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>55066</v>
+        <v>57348</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>106111</v>
+        <v>103514</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>74973</v>
+        <v>78044</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>141940</v>
+        <v>142228</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>81474</v>
+        <v>80768</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>144129</v>
+        <v>143825</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>113417</v>
+        <v>114810</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>234574</v>
+        <v>235535</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2829</v>
+        <v>2666</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6681</v>
+        <v>6786</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7919</v>
+        <v>8862</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5533</v>
+        <v>5575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>66337</v>
+        <v>66005</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>82962</v>
+        <v>84900</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>69285</v>
+        <v>67103</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>110269</v>
+        <v>110263</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>71682</v>
+        <v>70423</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>93601</v>
+        <v>94307</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>80492</v>
+        <v>80521</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>118859</v>
+        <v>120404</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13823</v>
+        <v>14969</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21991</v>
+        <v>23062</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23542</v>
+        <v>23345</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25379</v>
+        <v>26209</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>99594</v>
+        <v>100468</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>123698</v>
+        <v>122673</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>107711</v>
+        <v>104706</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>147133</v>
+        <v>145055</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>107756</v>
+        <v>106918</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>133510</v>
+        <v>136384</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>120550</v>
+        <v>122357</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>159793</v>
+        <v>160148</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>141139</v>
+        <v>139193</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>219660</v>
+        <v>220396</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>164216</v>
+        <v>162876</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>337552</v>
+        <v>340036</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>183284</v>
+        <v>183315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>288248</v>
+        <v>284896</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>211709</v>
+        <v>211656</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>380842</v>
+        <v>380380</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>334316</v>
+        <v>338090</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>522460</v>
+        <v>529898</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>389582</v>
+        <v>388951</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>734675</v>
+        <v>733880</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>189916</v>
+        <v>189866</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>285770</v>
+        <v>284633</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>220779</v>
+        <v>217826</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>413829</v>
+        <v>415391</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>239814</v>
+        <v>243259</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>359336</v>
+        <v>357676</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>274748</v>
+        <v>273610</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>441177</v>
+        <v>444739</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>411327</v>
+        <v>413196</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>618474</v>
+        <v>628600</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>476012</v>
+        <v>473722</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>833252</v>
+        <v>831841</v>
       </c>
     </row>
     <row r="32">
